--- a/note/program language vs.xlsx
+++ b/note/program language vs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="12075" windowHeight="4530"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="12072" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -624,16 +624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单行：#
-多行：
-"""
-xxx
-yyy
-zzzz
-"""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -648,37 +638,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>算术运算：+ - * / ** // %(没有
-                   ++和--)
-赋值运算：= += -= *= /= %= **=
-          //=
-位运算：&lt;&lt; &gt;&gt; | &amp; ^ ~
-逻辑运算：and ,or ,not （无&amp;&amp;和
-          ||）
-比较运算:== &lt;= &gt;= != &lt;&gt;
-成员运算： in, not in
-标示运算符： is , is not(判断id
-           是否相同)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">定义：
-def fun1(a):
-  x=123
-  print(x)
-  print(a)
-fun(1)
-默认参数定义:
-def fun2(a,b=1,d=2)
-  print(a)
-  print(b)
-  print(d)
-fun2(0)
-打印结果 0 1 2
-关键参数调用：
-fun2(0,b=9)
-打印结果 0 9 2
-            </t>
+    <t>1.用“+”拼接字符串
+2.用.join()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件语句：if elif else
+循环语句：while for
+中断控制语句： break, continue
+for var in collection:
+    xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表：arr=[x,y,z]
+元组：arr=(x,y,z)
+字典：arr={key1:value1,key2:value2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义：
+class Person:
+   def sayHi(self):
+       print("hello")
+p=Person()
+p.sayHi()
+构造函数：
+def __init(self,...):</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -733,41 +719,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.用“+”拼接字符串
-2.用.join()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件语句：if elif else
-循环语句：while for
-中断控制语句： break, continue
-for var in collection:
-    xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表：arr=[x,y,z]
-元组：arr=(x,y,z)
-字典：arr={key1:value1,key2:value2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义：
-class Person:
-   def sayHi(self):
-       print("hello")
-p=Person()
-p.sayHi()
-构造函数：
-def __init(self,...):</t>
+    <t>单行：#
+多行：
+"""
+xxx
+yyy
+zzzz
+"""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">定义：
+def fun1(a):
+  x=123
+  print(x)
+  print(a)
+fun(1)
+默认参数定义:
+def fun2(a,b=1,d=2)
+  print(a)
+  print(b)
+  print(d)
+fun2(0)
+打印结果 0 1 2
+关键参数调用：
+fun2(0,b=9)
+打印结果 0 9 2
+            </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术运算：+ - * / ** // %(没有
+                   ++和--)
+赋值运算：= += -= *= /= %= **=
+          //=
+位运算：&lt;&lt; &gt;&gt; | &amp; ^ ~
+逻辑运算：and ,or ,not （无&amp;&amp;和
+          ||）
+比较运算:== &lt;= &gt;= != &lt;&gt;
+成员运算： in, not in
+标示运算符： is , is not(判断id
+           是否相同)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,11 +833,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -911,6 +916,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -945,6 +951,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1120,23 +1127,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="52.75" customWidth="1"/>
-    <col min="5" max="5" width="46.375" customWidth="1"/>
-    <col min="6" max="6" width="59.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="52.77734375" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" customWidth="1"/>
+    <col min="6" max="6" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1163,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="108">
+    <row r="2" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1173,7 +1180,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="94.5">
+    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1187,7 +1194,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5">
+    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1201,10 +1208,10 @@
         <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="140.25" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1218,10 +1225,10 @@
         <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="148.5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1235,10 +1242,10 @@
         <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1249,10 +1256,10 @@
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="207.75" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1266,10 +1273,10 @@
         <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="182.25" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -1281,10 +1288,10 @@
         <v>45</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="225.75" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="225.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1295,7 +1302,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1303,7 +1310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="121.5">
+    <row r="12" spans="1:7" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1314,10 +1321,10 @@
         <v>49</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="108">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1331,10 +1338,10 @@
         <v>48</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="67.5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1345,10 +1352,10 @@
         <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="108">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1362,10 +1369,10 @@
         <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="54">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1376,7 +1383,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="94.5">
+    <row r="17" spans="1:6" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1390,7 +1397,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="81">
+    <row r="18" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1401,7 +1408,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="40.5">
+    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1416,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="27">
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1423,7 +1430,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="108">
+    <row r="21" spans="1:6" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -1434,7 +1441,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="108">
+    <row r="22" spans="1:6" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1443,7 +1450,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="94.5">
+    <row r="23" spans="1:6" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1451,7 +1458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1459,7 +1466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="40.5">
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1470,7 +1477,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="202.5">
+    <row r="26" spans="1:6" ht="216" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -1478,7 +1485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="67.5">
+    <row r="27" spans="1:6" ht="72" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -1486,7 +1493,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="216">
+    <row r="28" spans="1:6" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -1494,7 +1501,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27" customHeight="1"/>
+    <row r="29" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1503,12 +1510,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1517,12 +1524,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
